--- a/nr-keep-only-ep/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:26:04+00:00</t>
+    <t>2025-10-28T16:05:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:05:01+00:00</t>
+    <t>2025-10-28T16:06:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/eprescription/StructureDefinition/fr-inpatient-medicationrequest</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/fr-inpatient-medicationrequest</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:06:33+00:00</t>
+    <t>2025-10-28T16:07:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/eprescription/StructureDefinition/fr-medicationrequest</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/fr-medicationrequest</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -485,7 +485,7 @@
     <t>treatmentIntent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/eprescription/StructureDefinition/fr-treatment-intent}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/fr-treatment-intent}
 </t>
   </si>
   <si>
@@ -544,7 +544,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/eprescription/StructureDefinition/fr-treatment-intent</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/fr-treatment-intent</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -575,7 +575,7 @@
     <t>SNOMED CT encoded treatment overall intent</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/eprescription/ValueSet/fr-treatment-intent</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eprescription/ValueSet/fr-treatment-intent</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -945,7 +945,7 @@
     <t>medicationReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/eprescription/StructureDefinition/fr-medication-noncompound|https://hl7.fr/ig/fhir/eprescription/StructureDefinition/fr-medication-compound)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/fr-medication-noncompound|https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/fr-medication-compound)
 </t>
   </si>
   <si>
@@ -955,7 +955,7 @@
     <t>medicationCodeableConcept</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/eprescription/ValueSet/fr-medication-code</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eprescription/ValueSet/fr-medication-code</t>
   </si>
   <si>
     <t>MedicationRequest.subject</t>
@@ -1050,7 +1050,7 @@
     <t>UFRole</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/eprescription/StructureDefinition/fr-uf-role}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/fr-uf-role}
 </t>
   </si>
   <si>
@@ -1443,7 +1443,7 @@
     <t>noteScope</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/eprescription/StructureDefinition/fr-medicationrequest-note-scope}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/fr-medicationrequest-note-scope}
 </t>
   </si>
   <si>
@@ -1729,7 +1729,7 @@
     <t>AdditionalWhenValues</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/eprescription/StructureDefinition/fr-additional-when-values}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/fr-additional-when-values}
 </t>
   </si>
   <si>
@@ -2090,7 +2090,7 @@
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/eprescription/ValueSet/fr-route-of-administration</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eprescription/ValueSet/fr-route-of-administration</t>
   </si>
   <si>
     <t>Dosage.route</t>
@@ -2117,7 +2117,7 @@
     <t>A coded value indicating the method by which the medication is introduced into or onto the body. Most commonly used for injections.  For examples, Slow Push; Deep IV.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/eprescription/ValueSet/FrMethodOfAdministration</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eprescription/ValueSet/FrMethodOfAdministration</t>
   </si>
   <si>
     <t>Dosage.method</t>
@@ -2156,7 +2156,7 @@
     <t>BasisOfDoseComponent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/eprescription/StructureDefinition/fr-basis-of-dose-component}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/fr-basis-of-dose-component}
 </t>
   </si>
   <si>
@@ -2221,7 +2221,7 @@
     <t>doseRange</t>
   </si>
   <si>
-    <t xml:space="preserve">Range {https://hl7.fr/ig/fhir/eprescription/StructureDefinition/FrRangeMedication}
+    <t xml:space="preserve">Range {https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/FrRangeMedication}
 </t>
   </si>
   <si>
@@ -2231,7 +2231,7 @@
     <t>doseQuantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {https://hl7.fr/ig/fhir/eprescription/StructureDefinition/FrSimpleQuantityMedication}
+    <t xml:space="preserve">Quantity {https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/FrSimpleQuantityMedication}
 </t>
   </si>
   <si>
@@ -2271,7 +2271,7 @@
     <t>rateRatio</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio {https://hl7.fr/ig/fhir/eprescription/StructureDefinition/FrRatioMedication}
+    <t xml:space="preserve">Ratio {https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/FrRatioMedication}
 </t>
   </si>
   <si>
@@ -3225,7 +3225,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="136.02734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="162.828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3240,7 +3240,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="169.7734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="68.9140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:07:48+00:00</t>
+    <t>2025-10-28T16:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:07:35+00:00</t>
+    <t>2025-10-28T16:42:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:42:48+00:00</t>
+    <t>2025-10-28T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:58:49+00:00</t>
+    <t>2025-10-28T17:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
